--- a/AR6WG1_variables/AR6WG1_priorityVariables.xlsx
+++ b/AR6WG1_variables/AR6WG1_priorityVariables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="AR6-WG1 Priority Variables" sheetId="1" state="visible" r:id="rId2"/>
@@ -337,7 +337,7 @@
     <t xml:space="preserve">historical, ssp126, ssp245, ssp370, ssp585, ssp119, ssp434, ssp460, ssp534-over</t>
   </si>
   <si>
-    <t xml:space="preserve">tos, tauuo, tauvo, thetao, so, msftmrho, msftmz, uo, vo, umo, vmo, msftbarot, ts</t>
+    <t xml:space="preserve">tos, tauuo, tauvo, bigthetao,thetao, so, msftmrho, msftmz, uo, vo, umo, vmo, msftbarot, ts</t>
   </si>
   <si>
     <t xml:space="preserve">historical, ssps, OMIP, HighResMIP, FAFMIP</t>
@@ -397,10 +397,10 @@
     <t xml:space="preserve">piControl, historical, abrupt-4xCO2, 1pctCO2, ssp126, ssp245, ssp370, ssp585</t>
   </si>
   <si>
-    <t xml:space="preserve">thetao, volcello, areacello</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thetaoga, zostoga</t>
+    <t xml:space="preserve">bigthetao, thetao, volcello, areacello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bigthetaoga, thetaoga, zostoga</t>
   </si>
   <si>
     <t xml:space="preserve">tas, pr, mrso, mrsos, evspsbl, tos, siconc, siconca</t>
@@ -745,7 +745,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -791,11 +791,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="'Arial'"/>
       <family val="2"/>
@@ -819,12 +814,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -975,35 +964,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1011,15 +1000,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1039,79 +1028,79 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1194,18 +1183,18 @@
   </sheetPr>
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B43" activeCellId="0" sqref="B43"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.5510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.4795918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="65.7397959183674"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.9387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="13.3622448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2115,7 +2104,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>7</v>
       </c>
@@ -2135,7 +2124,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>7</v>
       </c>
@@ -2330,18 +2319,18 @@
   </sheetPr>
   <dimension ref="A1:AC40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="48.3265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.6530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.3622448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
